--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_OPA.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_OPA.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,7 +418,7 @@
         <v>39583</v>
       </c>
       <c r="B4">
-        <v>0.4000000000000057</v>
+        <v>-0.2000000000000028</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>39675</v>
       </c>
       <c r="B5">
-        <v>0.4000000000000057</v>
+        <v>0.2999999999999829</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +434,7 @@
         <v>39767</v>
       </c>
       <c r="B6">
-        <v>0.4000000000000057</v>
+        <v>0.2000000000000028</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -442,7 +442,7 @@
         <v>39859</v>
       </c>
       <c r="B7">
-        <v>0.7999999999999972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -450,7 +450,7 @@
         <v>39948</v>
       </c>
       <c r="B8">
-        <v>0.2000000000000028</v>
+        <v>-0.7999999999999972</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -458,7 +458,7 @@
         <v>40040</v>
       </c>
       <c r="B9">
-        <v>0.09999999999999432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -466,7 +466,7 @@
         <v>40132</v>
       </c>
       <c r="B10">
-        <v>-0.1999999999999886</v>
+        <v>0.2999999999999829</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -474,7 +474,7 @@
         <v>40224</v>
       </c>
       <c r="B11">
-        <v>0.2999999999999829</v>
+        <v>0.4000000000000057</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -482,7 +482,7 @@
         <v>40313</v>
       </c>
       <c r="B12">
-        <v>0.4000000000000057</v>
+        <v>0.5999999999999943</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -490,7 +490,7 @@
         <v>40405</v>
       </c>
       <c r="B13">
-        <v>0.4999999999999858</v>
+        <v>1.200000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -498,7 +498,7 @@
         <v>40497</v>
       </c>
       <c r="B14">
-        <v>0.6999999999999886</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -506,7 +506,7 @@
         <v>40589</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.7999999999999972</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -514,7 +514,7 @@
         <v>40678</v>
       </c>
       <c r="B16">
-        <v>1.200000000000003</v>
+        <v>1.599999999999994</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -522,7 +522,7 @@
         <v>40770</v>
       </c>
       <c r="B17">
-        <v>1.299999999999983</v>
+        <v>1.799999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -530,7 +530,7 @@
         <v>40862</v>
       </c>
       <c r="B18">
-        <v>1.499999999999986</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -538,7 +538,7 @@
         <v>40954</v>
       </c>
       <c r="B19">
-        <v>1.499999999999986</v>
+        <v>0.5999999999999943</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -546,7 +546,7 @@
         <v>41044</v>
       </c>
       <c r="B20">
-        <v>1.499999999999986</v>
+        <v>-0.4993864180312784</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -554,7 +554,7 @@
         <v>41136</v>
       </c>
       <c r="B21">
-        <v>1.400000000000006</v>
+        <v>-0.2000000000000313</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -562,7 +562,7 @@
         <v>41228</v>
       </c>
       <c r="B22">
-        <v>1.400000000000006</v>
+        <v>0.7063371330579002</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -570,7 +570,7 @@
         <v>41320</v>
       </c>
       <c r="B23">
-        <v>1.300000000000011</v>
+        <v>0.4489068848233728</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -578,7 +578,7 @@
         <v>41409</v>
       </c>
       <c r="B24">
-        <v>1.299999999999969</v>
+        <v>1.408791801231501</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -586,7 +586,7 @@
         <v>41501</v>
       </c>
       <c r="B25">
-        <v>1.300000000000011</v>
+        <v>0.5999999999999943</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -594,7 +594,7 @@
         <v>41593</v>
       </c>
       <c r="B26">
-        <v>1.299999999999983</v>
+        <v>1.011699570515816</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -602,7 +602,7 @@
         <v>41685</v>
       </c>
       <c r="B27">
-        <v>1.499999999999986</v>
+        <v>0.9935161553936211</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -610,7 +610,7 @@
         <v>41774</v>
       </c>
       <c r="B28">
-        <v>1.499999999999972</v>
+        <v>1.302043324436823</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -618,7 +618,7 @@
         <v>41866</v>
       </c>
       <c r="B29">
-        <v>1.499999999999986</v>
+        <v>1.299999999999969</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -626,7 +626,7 @@
         <v>41958</v>
       </c>
       <c r="B30">
-        <v>1.500000000000014</v>
+        <v>0.3957849067177932</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -634,7 +634,7 @@
         <v>42050</v>
       </c>
       <c r="B31">
-        <v>1.200000000000003</v>
+        <v>0.4505051707104855</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -642,7 +642,7 @@
         <v>42139</v>
       </c>
       <c r="B32">
-        <v>1.200000000000017</v>
+        <v>0.59458493635276</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -650,7 +650,7 @@
         <v>42231</v>
       </c>
       <c r="B33">
-        <v>1.199999999999974</v>
+        <v>0.4999999999999432</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -658,7 +658,7 @@
         <v>42323</v>
       </c>
       <c r="B34">
-        <v>1.200000000000017</v>
+        <v>0.6016050630459375</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -666,7 +666,7 @@
         <v>42415</v>
       </c>
       <c r="B35">
-        <v>0.4999999999999716</v>
+        <v>0.6001107530880319</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -674,7 +674,7 @@
         <v>42505</v>
       </c>
       <c r="B36">
-        <v>0.4000000000000199</v>
+        <v>0.5980962996738413</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -682,7 +682,7 @@
         <v>42597</v>
       </c>
       <c r="B37">
-        <v>0.3999999999999773</v>
+        <v>0.5999999999999943</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -690,7 +690,7 @@
         <v>42689</v>
       </c>
       <c r="B38">
-        <v>0.4000000000000057</v>
+        <v>0.6486835802838442</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -698,7 +698,7 @@
         <v>42781</v>
       </c>
       <c r="B39">
-        <v>0.5999999999999943</v>
+        <v>0.6499971057671843</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -706,7 +706,7 @@
         <v>42870</v>
       </c>
       <c r="B40">
-        <v>0.5999999999999801</v>
+        <v>0.600949061571356</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -714,7 +714,7 @@
         <v>42962</v>
       </c>
       <c r="B41">
-        <v>0.6000000000000512</v>
+        <v>0.5999999999999943</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -722,7 +722,7 @@
         <v>43054</v>
       </c>
       <c r="B42">
-        <v>0.5999999999999801</v>
+        <v>0.9401796321600813</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -730,7 +730,7 @@
         <v>43146</v>
       </c>
       <c r="B43">
-        <v>0.6400000000000432</v>
+        <v>0.9025026375028489</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -738,7 +738,7 @@
         <v>43235</v>
       </c>
       <c r="B44">
-        <v>0.6399999999999721</v>
+        <v>0.9987092793436005</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -746,7 +746,7 @@
         <v>43327</v>
       </c>
       <c r="B45">
-        <v>0.6400000000000432</v>
+        <v>0.8989194962581735</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -754,7 +754,7 @@
         <v>43419</v>
       </c>
       <c r="B46">
-        <v>0.6399999999999721</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -762,7 +762,7 @@
         <v>43511</v>
       </c>
       <c r="B47">
-        <v>0.8000000000000398</v>
+        <v>0.5479150381202658</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -770,7 +770,7 @@
         <v>43600</v>
       </c>
       <c r="B48">
-        <v>0.7999999999999972</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -778,7 +778,7 @@
         <v>43692</v>
       </c>
       <c r="B49">
-        <v>0.8000000000000256</v>
+        <v>0.7003888945527734</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -786,7 +786,7 @@
         <v>43784</v>
       </c>
       <c r="B50">
-        <v>0.7999999999999972</v>
+        <v>0.6487569224423311</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -794,7 +794,7 @@
         <v>43876</v>
       </c>
       <c r="B51">
-        <v>0.8999999999999915</v>
+        <v>0.7003348337051136</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -802,7 +802,7 @@
         <v>43966</v>
       </c>
       <c r="B52">
-        <v>0.8999999999999915</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -810,7 +810,7 @@
         <v>44058</v>
       </c>
       <c r="B53">
-        <v>0.8999999999999915</v>
+        <v>0.798184409453512</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -818,7 +818,7 @@
         <v>44150</v>
       </c>
       <c r="B54">
-        <v>0.9000000000000057</v>
+        <v>0.7972078981263451</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -826,7 +826,7 @@
         <v>44242</v>
       </c>
       <c r="B55">
-        <v>0.6999999999999886</v>
+        <v>0.7006632596227007</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -834,7 +834,7 @@
         <v>44331</v>
       </c>
       <c r="B56">
-        <v>0.699999999999946</v>
+        <v>0.7005260309296233</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -842,7 +842,7 @@
         <v>44423</v>
       </c>
       <c r="B57">
-        <v>0.7000000000000171</v>
+        <v>1.501866008463963</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -850,7 +850,7 @@
         <v>44515</v>
       </c>
       <c r="B58">
-        <v>0.7000000000000171</v>
+        <v>1.500711092634546</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -858,7 +858,7 @@
         <v>44607</v>
       </c>
       <c r="B59">
-        <v>0.7000000000000313</v>
+        <v>1.397766293286139</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -866,7 +866,7 @@
         <v>44696</v>
       </c>
       <c r="B60">
-        <v>0.6999999999999886</v>
+        <v>0.9013714134183743</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -874,7 +874,7 @@
         <v>44788</v>
       </c>
       <c r="B61">
-        <v>0.6999999999999886</v>
+        <v>0.4038529775848758</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -882,7 +882,7 @@
         <v>44880</v>
       </c>
       <c r="B62">
-        <v>0.7000000000000171</v>
+        <v>0.9991743200616696</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -890,7 +890,7 @@
         <v>44972</v>
       </c>
       <c r="B63">
-        <v>0.9000000000000057</v>
+        <v>0.6350385067502629</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -898,7 +898,7 @@
         <v>45061</v>
       </c>
       <c r="B64">
-        <v>0.8999999999999915</v>
+        <v>0.2134433935270721</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>45153</v>
       </c>
       <c r="B65">
-        <v>0.8999999999999631</v>
+        <v>0.3629264220863746</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>45245</v>
       </c>
       <c r="B66">
-        <v>0.9000000000000057</v>
+        <v>0.3091193133532926</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>45337</v>
       </c>
       <c r="B67">
-        <v>0.9998040334883882</v>
+        <v>0.6338683484835599</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>45427</v>
       </c>
       <c r="B68">
-        <v>0.7999999999999545</v>
+        <v>0.2985013435050234</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -938,7 +938,7 @@
         <v>45519</v>
       </c>
       <c r="B69">
-        <v>0.4999999999999858</v>
+        <v>0.2049602221247682</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>45611</v>
       </c>
       <c r="B70">
-        <v>0.4999999999999858</v>
+        <v>0.6878071214384534</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>45703</v>
       </c>
       <c r="B71">
-        <v>0.5992590241756375</v>
+        <v>0.5782185388409715</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>45792</v>
       </c>
       <c r="B72">
-        <v>0.5173281499470761</v>
+        <v>0.5490590963348296</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,79 +970,7 @@
         <v>45884</v>
       </c>
       <c r="B73">
-        <v>0.4179220328589111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2">
-        <v>45976</v>
-      </c>
-      <c r="B74">
-        <v>0.4179144891355122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2">
-        <v>46068</v>
-      </c>
-      <c r="B75">
-        <v>0.5999999999999943</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2">
-        <v>46157</v>
-      </c>
-      <c r="B76">
-        <v>0.5999999999999801</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2">
-        <v>46249</v>
-      </c>
-      <c r="B77">
-        <v>0.5999999999999943</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2">
-        <v>46341</v>
-      </c>
-      <c r="B78">
-        <v>0.5999999999999943</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2">
-        <v>46433</v>
-      </c>
-      <c r="B79">
-        <v>1.067374524280623</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2">
-        <v>46522</v>
-      </c>
-      <c r="B80">
-        <v>1.067596262336991</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2">
-        <v>46614</v>
-      </c>
-      <c r="B81">
-        <v>1.233909290684949</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2">
-        <v>46706</v>
-      </c>
-      <c r="B82">
-        <v>1.233964924396787</v>
+        <v>0.7477535645244302</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_OPA.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_OPA.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,578 +399,418 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>39401</v>
+        <v>39400</v>
       </c>
       <c r="B2">
-        <v>2.499999999999986</v>
+        <v>3.582807286231798</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>39493</v>
+        <v>39583</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>-3.395106996021084</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B4">
-        <v>-0.2000000000000028</v>
+        <v>3.499081613727355</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>39675</v>
+        <v>39948</v>
       </c>
       <c r="B5">
-        <v>0.2999999999999829</v>
+        <v>2.643706631981502</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>39767</v>
+        <v>40130</v>
       </c>
       <c r="B6">
-        <v>0.2000000000000028</v>
+        <v>2.323758253012315</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>39859</v>
+        <v>40310</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1.86889045152472</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>39948</v>
+        <v>40494</v>
       </c>
       <c r="B8">
-        <v>-0.7999999999999972</v>
+        <v>1.711273044056469</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>40040</v>
+        <v>40676</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.792365984063807</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>40132</v>
+        <v>40862</v>
       </c>
       <c r="B10">
-        <v>0.2999999999999829</v>
+        <v>1.894327589997687</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>40224</v>
+        <v>41044</v>
       </c>
       <c r="B11">
-        <v>0.4000000000000057</v>
+        <v>-1.203281951233052</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>40313</v>
+        <v>41228</v>
       </c>
       <c r="B12">
-        <v>0.5999999999999943</v>
+        <v>1.349970205759888</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>40405</v>
+        <v>41409</v>
       </c>
       <c r="B13">
-        <v>1.200000000000003</v>
+        <v>-1.129543206172372</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>40497</v>
+        <v>41592</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1.457269272787158</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>40589</v>
+        <v>41774</v>
       </c>
       <c r="B15">
-        <v>0.7999999999999972</v>
+        <v>-0.745755750114057</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>40678</v>
+        <v>41957</v>
       </c>
       <c r="B16">
-        <v>1.599999999999994</v>
+        <v>0.06404262623020429</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>40770</v>
+        <v>42137</v>
       </c>
       <c r="B17">
-        <v>1.799999999999997</v>
+        <v>0.2463991311210521</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>40862</v>
+        <v>42321</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0.6724301216571575</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>40954</v>
+        <v>42503</v>
       </c>
       <c r="B19">
-        <v>0.5999999999999943</v>
+        <v>0.6559243910605232</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>41044</v>
+        <v>42689</v>
       </c>
       <c r="B20">
-        <v>-0.4993864180312784</v>
+        <v>0.5936072881632271</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>41136</v>
+        <v>42867</v>
       </c>
       <c r="B21">
-        <v>-0.2000000000000313</v>
+        <v>0.3249989166702818</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>41228</v>
+        <v>43053</v>
       </c>
       <c r="B22">
-        <v>0.7063371330579002</v>
+        <v>0.8673551286853183</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>41320</v>
+        <v>43145</v>
       </c>
       <c r="B23">
-        <v>0.4489068848233728</v>
+        <v>0.6331942894404392</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>41409</v>
+        <v>43235</v>
       </c>
       <c r="B24">
-        <v>1.408791801231501</v>
+        <v>1.523252944018139</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>41501</v>
+        <v>43326</v>
       </c>
       <c r="B25">
-        <v>0.5999999999999943</v>
+        <v>-0.5201366209837346</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>41593</v>
+        <v>43418</v>
       </c>
       <c r="B26">
-        <v>1.011699570515816</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>41685</v>
+        <v>43510</v>
       </c>
       <c r="B27">
-        <v>0.9935161553936211</v>
+        <v>0.1895219545376108</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>41774</v>
+        <v>43600</v>
       </c>
       <c r="B28">
-        <v>1.302043324436823</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>41866</v>
+        <v>43691</v>
       </c>
       <c r="B29">
-        <v>1.299999999999969</v>
+        <v>-0.5586173343648539</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>41958</v>
+        <v>43783</v>
       </c>
       <c r="B30">
-        <v>0.3957849067177932</v>
+        <v>0.9418773066947779</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>42050</v>
+        <v>43875</v>
       </c>
       <c r="B31">
-        <v>0.4505051707104855</v>
+        <v>1.001530035891491</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>42139</v>
+        <v>43966</v>
       </c>
       <c r="B32">
-        <v>0.59458493635276</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>42231</v>
+        <v>44068</v>
       </c>
       <c r="B33">
-        <v>0.4999999999999432</v>
+        <v>0.5863322451846074</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>42323</v>
+        <v>44159</v>
       </c>
       <c r="B34">
-        <v>0.6016050630459375</v>
+        <v>1.879044851730669</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>42415</v>
+        <v>44251</v>
       </c>
       <c r="B35">
-        <v>0.6001107530880319</v>
+        <v>0.5891195155317774</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>42505</v>
+        <v>44341</v>
       </c>
       <c r="B36">
-        <v>0.5980962996738413</v>
+        <v>-1.620076036519961</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>42597</v>
+        <v>44432</v>
       </c>
       <c r="B37">
-        <v>0.5999999999999943</v>
+        <v>1.285713798234809</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>42689</v>
+        <v>44525</v>
       </c>
       <c r="B38">
-        <v>0.6486835802838442</v>
+        <v>0.9260365910423758</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>42781</v>
+        <v>44617</v>
       </c>
       <c r="B39">
-        <v>0.6499971057671843</v>
+        <v>1.323876910632023</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>42870</v>
+        <v>44706</v>
       </c>
       <c r="B40">
-        <v>0.600949061571356</v>
+        <v>-2.136777872354216</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>42962</v>
+        <v>44798</v>
       </c>
       <c r="B41">
-        <v>0.5999999999999943</v>
+        <v>0.7934051314956321</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>43054</v>
+        <v>44890</v>
       </c>
       <c r="B42">
-        <v>0.9401796321600813</v>
+        <v>1.029975481959951</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>43146</v>
+        <v>44981</v>
       </c>
       <c r="B43">
-        <v>0.9025026375028489</v>
+        <v>0.7043810499788776</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>43235</v>
+        <v>45071</v>
       </c>
       <c r="B44">
-        <v>0.9987092793436005</v>
+        <v>0.1406555772994125</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>43327</v>
+        <v>45163</v>
       </c>
       <c r="B45">
-        <v>0.8989194962581735</v>
+        <v>0.4268111723034735</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>43419</v>
+        <v>45254</v>
       </c>
       <c r="B46">
-        <v>0.6</v>
+        <v>0.3049656067824742</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>43511</v>
+        <v>45345</v>
       </c>
       <c r="B47">
-        <v>0.5479150381202658</v>
+        <v>0.7386451510207621</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>43600</v>
+        <v>45436</v>
       </c>
       <c r="B48">
-        <v>0.5</v>
+        <v>-1.147231087866345</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>43692</v>
+        <v>45534</v>
       </c>
       <c r="B49">
-        <v>0.7003888945527734</v>
+        <v>0.5563279776301044</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>43784</v>
+        <v>45618</v>
       </c>
       <c r="B50">
-        <v>0.6487569224423311</v>
+        <v>0.6119095091543301</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>43876</v>
+        <v>45713</v>
       </c>
       <c r="B51">
-        <v>0.7003348337051136</v>
+        <v>-0.1750403534197602</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>43966</v>
+        <v>45800</v>
       </c>
       <c r="B52">
-        <v>-1</v>
+        <v>2.014657057377804</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>44058</v>
+        <v>45891</v>
       </c>
       <c r="B53">
-        <v>0.798184409453512</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2">
-        <v>44150</v>
-      </c>
-      <c r="B54">
-        <v>0.7972078981263451</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2">
-        <v>44242</v>
-      </c>
-      <c r="B55">
-        <v>0.7006632596227007</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2">
-        <v>44331</v>
-      </c>
-      <c r="B56">
-        <v>0.7005260309296233</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B57">
-        <v>1.501866008463963</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2">
-        <v>44515</v>
-      </c>
-      <c r="B58">
-        <v>1.500711092634546</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2">
-        <v>44607</v>
-      </c>
-      <c r="B59">
-        <v>1.397766293286139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2">
-        <v>44696</v>
-      </c>
-      <c r="B60">
-        <v>0.9013714134183743</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2">
-        <v>44788</v>
-      </c>
-      <c r="B61">
-        <v>0.4038529775848758</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2">
-        <v>44880</v>
-      </c>
-      <c r="B62">
-        <v>0.9991743200616696</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2">
-        <v>44972</v>
-      </c>
-      <c r="B63">
-        <v>0.6350385067502629</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2">
-        <v>45061</v>
-      </c>
-      <c r="B64">
-        <v>0.2134433935270721</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2">
-        <v>45153</v>
-      </c>
-      <c r="B65">
-        <v>0.3629264220863746</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2">
-        <v>45245</v>
-      </c>
-      <c r="B66">
-        <v>0.3091193133532926</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2">
-        <v>45337</v>
-      </c>
-      <c r="B67">
-        <v>0.6338683484835599</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2">
-        <v>45427</v>
-      </c>
-      <c r="B68">
-        <v>0.2985013435050234</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2">
-        <v>45519</v>
-      </c>
-      <c r="B69">
-        <v>0.2049602221247682</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2">
-        <v>45611</v>
-      </c>
-      <c r="B70">
-        <v>0.6878071214384534</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2">
-        <v>45703</v>
-      </c>
-      <c r="B71">
-        <v>0.5782185388409715</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2">
-        <v>45792</v>
-      </c>
-      <c r="B72">
-        <v>0.5490590963348296</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2">
-        <v>45884</v>
-      </c>
-      <c r="B73">
-        <v>0.7477535645244302</v>
+        <v>1.176666004305858</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_OPA.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_OPA.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>value</t>
+    <t>first_release_value</t>
   </si>
   <si>
     <t>date</t>
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,418 +399,666 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>38398</v>
       </c>
       <c r="B2">
-        <v>3.582807286231798</v>
+        <v>2.242163775570006</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>38487</v>
       </c>
       <c r="B3">
-        <v>-3.395106996021084</v>
+        <v>2.091135310035625</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>38579</v>
       </c>
       <c r="B4">
-        <v>3.499081613727355</v>
+        <v>0.9944471842946427</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>38671</v>
       </c>
       <c r="B5">
-        <v>2.643706631981502</v>
+        <v>0.9928173778926066</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>38763</v>
       </c>
       <c r="B6">
-        <v>2.323758253012315</v>
+        <v>1.250036577260232</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>38852</v>
       </c>
       <c r="B7">
-        <v>1.86889045152472</v>
+        <v>2.575863919739078</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>38944</v>
       </c>
       <c r="B8">
-        <v>1.711273044056469</v>
+        <v>1.885430544430974</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>39036</v>
       </c>
       <c r="B9">
-        <v>1.792365984063807</v>
+        <v>2.472609955227796</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>39128</v>
       </c>
       <c r="B10">
-        <v>1.894327589997687</v>
+        <v>-2.835601669029018</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>39217</v>
       </c>
       <c r="B11">
-        <v>-1.203281951233052</v>
+        <v>3.582807286231798</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>39309</v>
       </c>
       <c r="B12">
-        <v>1.349970205759888</v>
+        <v>2.84026705788169</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>39401</v>
       </c>
       <c r="B13">
-        <v>-1.129543206172372</v>
+        <v>3.955833169388171</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>39493</v>
       </c>
       <c r="B14">
-        <v>1.457269272787158</v>
+        <v>-3.395106996021084</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>39583</v>
       </c>
       <c r="B15">
-        <v>-0.745755750114057</v>
+        <v>3.499081613727355</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>39675</v>
       </c>
       <c r="B16">
-        <v>0.06404262623020429</v>
+        <v>2.592644404801675</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>39767</v>
       </c>
       <c r="B17">
-        <v>0.2463991311210521</v>
+        <v>1.736767165393488</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>39859</v>
       </c>
       <c r="B18">
-        <v>0.6724301216571575</v>
+        <v>2.643706631981502</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>39948</v>
       </c>
       <c r="B19">
-        <v>0.6559243910605232</v>
+        <v>2.323758253012315</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>40040</v>
       </c>
       <c r="B20">
-        <v>0.5936072881632271</v>
+        <v>2.608556055003234</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>40132</v>
       </c>
       <c r="B21">
-        <v>0.3249989166702818</v>
+        <v>1.86889045152472</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>40224</v>
       </c>
       <c r="B22">
-        <v>0.8673551286853183</v>
+        <v>0.006481553498744574</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>40313</v>
       </c>
       <c r="B23">
-        <v>0.6331942894404392</v>
+        <v>1.711273044056469</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>40405</v>
       </c>
       <c r="B24">
-        <v>1.523252944018139</v>
+        <v>1.688687706043183</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>40497</v>
       </c>
       <c r="B25">
-        <v>-0.5201366209837346</v>
+        <v>1.792365984063807</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>40589</v>
       </c>
       <c r="B26">
-        <v>0.3</v>
+        <v>1.229569560816685</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>40678</v>
       </c>
       <c r="B27">
-        <v>0.1895219545376108</v>
+        <v>1.251398958688156</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>40770</v>
       </c>
       <c r="B28">
-        <v>-1.1</v>
+        <v>1.894327589997687</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>40862</v>
       </c>
       <c r="B29">
-        <v>-0.5586173343648539</v>
+        <v>2.038970289930276</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>40954</v>
       </c>
       <c r="B30">
-        <v>0.9418773066947779</v>
+        <v>-1.203281951233052</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>41044</v>
       </c>
       <c r="B31">
-        <v>1.001530035891491</v>
+        <v>1.144259094742182</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>41136</v>
       </c>
       <c r="B32">
-        <v>-0.3</v>
+        <v>1.349970205759888</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>41228</v>
       </c>
       <c r="B33">
-        <v>0.5863322451846074</v>
+        <v>1.458501179148698</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>41320</v>
       </c>
       <c r="B34">
-        <v>1.879044851730669</v>
+        <v>-1.129543206172372</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>41409</v>
       </c>
       <c r="B35">
-        <v>0.5891195155317774</v>
+        <v>1.457269272787158</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>41501</v>
       </c>
       <c r="B36">
-        <v>-1.620076036519961</v>
+        <v>1.487361974653282</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>41593</v>
       </c>
       <c r="B37">
-        <v>1.285713798234809</v>
+        <v>1.156894268291822</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>41685</v>
       </c>
       <c r="B38">
-        <v>0.9260365910423758</v>
+        <v>-0.745755750114057</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>41774</v>
       </c>
       <c r="B39">
-        <v>1.323876910632023</v>
+        <v>0.06404262623020429</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>41866</v>
       </c>
       <c r="B40">
-        <v>-2.136777872354216</v>
+        <v>0.1737308174866143</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>41958</v>
       </c>
       <c r="B41">
-        <v>0.7934051314956321</v>
+        <v>0.2463991311210521</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>42050</v>
       </c>
       <c r="B42">
-        <v>1.029975481959951</v>
+        <v>0.7010274884327714</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>42139</v>
       </c>
       <c r="B43">
-        <v>0.7043810499788776</v>
+        <v>0.6724301216571575</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>42231</v>
       </c>
       <c r="B44">
-        <v>0.1406555772994125</v>
+        <v>0.6055725079508818</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>42323</v>
       </c>
       <c r="B45">
-        <v>0.4268111723034735</v>
+        <v>0.6559243910605232</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>42415</v>
       </c>
       <c r="B46">
-        <v>0.3049656067824742</v>
+        <v>0.2465498360118943</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>42505</v>
       </c>
       <c r="B47">
-        <v>0.7386451510207621</v>
+        <v>0.728013932200497</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>42597</v>
       </c>
       <c r="B48">
-        <v>-1.147231087866345</v>
+        <v>0.5936072881632271</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>42689</v>
       </c>
       <c r="B49">
-        <v>0.5563279776301044</v>
+        <v>0.3249989166702818</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>42781</v>
       </c>
       <c r="B50">
-        <v>0.6119095091543301</v>
+        <v>0.8183109759107481</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>42870</v>
       </c>
       <c r="B51">
-        <v>-0.1750403534197602</v>
+        <v>0.8673551286853183</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>42962</v>
       </c>
       <c r="B52">
-        <v>2.014657057377804</v>
+        <v>0.6332079648756093</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45891</v>
+        <v>43054</v>
       </c>
       <c r="B53">
-        <v>1.176666004305858</v>
+        <v>-0.05439614307451279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
+        <v>43146</v>
+      </c>
+      <c r="B54">
+        <v>1.523252944018139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B55">
+        <v>0.3248094884653767</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
+        <v>43327</v>
+      </c>
+      <c r="B56">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
+        <v>43419</v>
+      </c>
+      <c r="B57">
+        <v>0.4808067740839022</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
+        <v>43511</v>
+      </c>
+      <c r="B58">
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
+        <v>43600</v>
+      </c>
+      <c r="B59">
+        <v>0.9506210268477986</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
+        <v>43692</v>
+      </c>
+      <c r="B60">
+        <v>1.001669714356154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
+        <v>43784</v>
+      </c>
+      <c r="B61">
+        <v>1.050934984173367</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
+        <v>43876</v>
+      </c>
+      <c r="B62">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B63">
+        <v>0.5863322451846074</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B64">
+        <v>0.798184409453512</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
+        <v>44150</v>
+      </c>
+      <c r="B65">
+        <v>0.7972078981263451</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B66">
+        <v>0.7006632596227007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
+        <v>44331</v>
+      </c>
+      <c r="B67">
+        <v>0.7005260309296233</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B68">
+        <v>1.501866008463963</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B69">
+        <v>1.500711092634546</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B70">
+        <v>1.397766293286139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
+        <v>44696</v>
+      </c>
+      <c r="B71">
+        <v>0.9013714134183743</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
+        <v>44788</v>
+      </c>
+      <c r="B72">
+        <v>0.4038529775848758</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
+        <v>44880</v>
+      </c>
+      <c r="B73">
+        <v>0.9991743200616696</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
+        <v>44972</v>
+      </c>
+      <c r="B74">
+        <v>0.6350385067502629</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B75">
+        <v>0.2134433935270721</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
+        <v>45153</v>
+      </c>
+      <c r="B76">
+        <v>0.3629264220863746</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
+        <v>45245</v>
+      </c>
+      <c r="B77">
+        <v>0.3091193133532926</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B78">
+        <v>0.6338683484835599</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
+        <v>45427</v>
+      </c>
+      <c r="B79">
+        <v>0.2985013435050234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
+        <v>45519</v>
+      </c>
+      <c r="B80">
+        <v>0.2049602221247682</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2">
+        <v>45611</v>
+      </c>
+      <c r="B81">
+        <v>0.6878071214384534</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
+        <v>45703</v>
+      </c>
+      <c r="B82">
+        <v>0.5782185388409715</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2">
+        <v>45792</v>
+      </c>
+      <c r="B83">
+        <v>0.5490590963348296</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
+        <v>45884</v>
+      </c>
+      <c r="B84">
+        <v>0.7477535645244302</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_OPA.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_OPA.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,7 +898,7 @@
         <v>44058</v>
       </c>
       <c r="B64">
-        <v>0.798184409453512</v>
+        <v>1.879044851730669</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>44150</v>
       </c>
       <c r="B65">
-        <v>0.7972078981263451</v>
+        <v>0.5891195155317774</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>44242</v>
       </c>
       <c r="B66">
-        <v>0.7006632596227007</v>
+        <v>-1.620076036519961</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>44331</v>
       </c>
       <c r="B67">
-        <v>0.7005260309296233</v>
+        <v>1.285713798234809</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>44423</v>
       </c>
       <c r="B68">
-        <v>1.501866008463963</v>
+        <v>0.9260365910423758</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -938,7 +938,7 @@
         <v>44515</v>
       </c>
       <c r="B69">
-        <v>1.500711092634546</v>
+        <v>1.323876910632023</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>44607</v>
       </c>
       <c r="B70">
-        <v>1.397766293286139</v>
+        <v>-2.136777872354216</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>44696</v>
       </c>
       <c r="B71">
-        <v>0.9013714134183743</v>
+        <v>0.7934051314956321</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>44788</v>
       </c>
       <c r="B72">
-        <v>0.4038529775848758</v>
+        <v>1.029975481959951</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,7 +970,7 @@
         <v>44880</v>
       </c>
       <c r="B73">
-        <v>0.9991743200616696</v>
+        <v>0.7043810499788776</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -978,7 +978,7 @@
         <v>44972</v>
       </c>
       <c r="B74">
-        <v>0.6350385067502629</v>
+        <v>0.1406555772994125</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -986,7 +986,7 @@
         <v>45061</v>
       </c>
       <c r="B75">
-        <v>0.2134433935270721</v>
+        <v>0.4268111723034735</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -994,7 +994,7 @@
         <v>45153</v>
       </c>
       <c r="B76">
-        <v>0.3629264220863746</v>
+        <v>0.3049656067824742</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>45245</v>
       </c>
       <c r="B77">
-        <v>0.3091193133532926</v>
+        <v>0.7386451510207621</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1010,7 +1010,7 @@
         <v>45337</v>
       </c>
       <c r="B78">
-        <v>0.6338683484835599</v>
+        <v>-1.147231087866345</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>45427</v>
       </c>
       <c r="B79">
-        <v>0.2985013435050234</v>
+        <v>0.5563279776301044</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>45519</v>
       </c>
       <c r="B80">
-        <v>0.2049602221247682</v>
+        <v>0.6119095091543301</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>45611</v>
       </c>
       <c r="B81">
-        <v>0.6878071214384534</v>
+        <v>-0.1750403534197602</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>45703</v>
       </c>
       <c r="B82">
-        <v>0.5782185388409715</v>
+        <v>2.014657057377804</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1050,15 +1050,7 @@
         <v>45792</v>
       </c>
       <c r="B83">
-        <v>0.5490590963348296</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2">
-        <v>45884</v>
-      </c>
-      <c r="B84">
-        <v>0.7477535645244302</v>
+        <v>1.176666004305858</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_OPA.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_OPA.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1053,6 +1053,14 @@
         <v>1.176666004305858</v>
       </c>
     </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
+        <v>45884</v>
+      </c>
+      <c r="B84">
+        <v>0.8783323788356512</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
